--- a/data/Advanced.xlsx
+++ b/data/Advanced.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formulas" sheetId="1" state="visible" r:id="rId1"/>
@@ -47,15 +47,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -289,7 +289,7 @@
     <ext cx="14297025" cy="5953125"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -314,7 +314,7 @@
     <ext cx="8772525" cy="6029325"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -759,7 +759,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -885,7 +885,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
@@ -973,7 +973,7 @@
         <v>8.33</v>
       </c>
       <c r="C6" t="n">
-        <v>8.501090909090912</v>
+        <v>8.501090909090911</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>7.24</v>
       </c>
       <c r="C8" t="n">
-        <v>6.000636363636365</v>
+        <v>6.000636363636366</v>
       </c>
     </row>
     <row r="9">
@@ -1043,7 +1043,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1147,7 +1147,7 @@
         <v>8.33</v>
       </c>
       <c r="D7" t="n">
-        <v>8.501090909090912</v>
+        <v>8.501090909090911</v>
       </c>
     </row>
     <row r="8">
@@ -1175,7 +1175,7 @@
         <v>7.24</v>
       </c>
       <c r="D9" t="n">
-        <v>6.000636363636365</v>
+        <v>6.000636363636366</v>
       </c>
     </row>
     <row r="10">
@@ -1235,6 +1235,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/Advanced.xlsx
+++ b/data/Advanced.xlsx
@@ -20,13 +20,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -973,7 +978,7 @@
         <v>8.33</v>
       </c>
       <c r="C6" t="n">
-        <v>8.501090909090911</v>
+        <v>8.501090909090912</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +1000,7 @@
         <v>7.24</v>
       </c>
       <c r="C8" t="n">
-        <v>6.000636363636366</v>
+        <v>6.000636363636365</v>
       </c>
     </row>
     <row r="9">
@@ -1063,17 +1068,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Fit</t>
         </is>
@@ -1147,7 +1152,7 @@
         <v>8.33</v>
       </c>
       <c r="D7" t="n">
-        <v>8.501090909090911</v>
+        <v>8.501090909090912</v>
       </c>
     </row>
     <row r="8">
@@ -1175,7 +1180,7 @@
         <v>7.24</v>
       </c>
       <c r="D9" t="n">
-        <v>6.000636363636366</v>
+        <v>6.000636363636365</v>
       </c>
     </row>
     <row r="10">

--- a/data/Advanced.xlsx
+++ b/data/Advanced.xlsx
@@ -653,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,104 +662,119 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="n">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="n">
         <v>12</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="n">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="n">
         <v>16</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="n">
         <v>18</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <f>SUM(A2:A11)</f>
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Totals:</t>
+        </is>
       </c>
       <c r="B12">
         <f>SUM(B2:B11)</f>
+        <v/>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
         <v/>
       </c>
     </row>
